--- a/report/No1_ログアウト表示テスト結果.xlsx
+++ b/report/No1_ログアウト表示テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{212DFFAC-2D0D-47FA-8E10-A98BC20AC34D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8533FE3E-F6CD-44AB-A08B-992146EEADA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ケース1" sheetId="1" r:id="rId1"/>
@@ -102,8 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -127,13 +130,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>250409</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>110698</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -171,13 +174,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>269462</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>102434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -215,13 +218,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>51547</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>141196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>325344</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>57898</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -298,13 +301,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>251385</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>95996</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -381,13 +384,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>107514</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>16697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -430,13 +433,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>231356</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>48661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -794,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B45"/>
+  <dimension ref="B1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -805,23 +808,33 @@
     <col min="1" max="52" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="1" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="1">
+        <v>45404</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -830,21 +843,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -1002,31 +1000,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1042,4 +1031,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>